--- a/Nyers adatok/fiokadatok.xlsx
+++ b/Nyers adatok/fiokadatok.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Everything\Suli\Adatb_2\Push\Adatbre_2_allaskereso\Nyers adatok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCE2347-DE5C-4DEE-A720-1BC88CCB9191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9604230B-BC2D-403E-A24F-629F6FEB0C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{03EF3B71-2982-49C9-B20B-B24B4DAFD3A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{03EF3B71-2982-49C9-B20B-B24B4DAFD3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="szemelyesadatok" sheetId="2" r:id="rId1"/>
     <sheet name="fiokadatok" sheetId="1" r:id="rId2"/>
     <sheet name="vallalat" sheetId="3" r:id="rId3"/>
+    <sheet name="normal_felhasznalo" sheetId="5" r:id="rId4"/>
+    <sheet name="diak_felhasznalo" sheetId="6" r:id="rId5"/>
+    <sheet name="diakszovetkezetnel_van" sheetId="7" r:id="rId6"/>
+    <sheet name="regisztralt_allasok" sheetId="8" r:id="rId7"/>
+    <sheet name="jelentkezok" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="KülsőAdatok_1" localSheetId="0" hidden="1">szemelyesadatok!$A$1:$C$101</definedName>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="540">
   <si>
     <t>id</t>
   </si>
@@ -1641,6 +1646,33 @@
   </si>
   <si>
     <t>iSpace, Inc</t>
+  </si>
+  <si>
+    <t>fiokadatok_id</t>
+  </si>
+  <si>
+    <t>vegzettseg_id</t>
+  </si>
+  <si>
+    <t>vallalat_id</t>
+  </si>
+  <si>
+    <t>fiokadat_id</t>
+  </si>
+  <si>
+    <t>iskola_id</t>
+  </si>
+  <si>
+    <t>diakszovetkezet_id</t>
+  </si>
+  <si>
+    <t>diak_felhasznalo_id</t>
+  </si>
+  <si>
+    <t>allas_id</t>
+  </si>
+  <si>
+    <t>normal_felhasznalo_id</t>
   </si>
 </sst>
 </file>
@@ -3170,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F085EA8C-A0B8-4D92-B736-EB01FAF499D9}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3218,7 @@
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3220,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3239,8 +3271,12 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f>IF(D3=3,A3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3259,8 +3295,12 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H67" si="0">IF(D4=3,A4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3277,8 +3317,12 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3297,8 +3341,12 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3315,8 +3363,12 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3335,8 +3387,12 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3355,8 +3411,12 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3372,8 +3432,12 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3392,8 +3456,12 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3412,8 +3480,12 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3432,8 +3504,12 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3452,8 +3528,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3472,8 +3552,12 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3492,8 +3576,12 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3512,8 +3600,12 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3529,8 +3621,12 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3549,8 +3645,12 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3569,8 +3669,12 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3589,8 +3693,12 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3609,8 +3717,12 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3629,8 +3741,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3649,8 +3765,12 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3666,8 +3786,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3683,8 +3807,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3703,8 +3831,12 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3720,8 +3852,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3740,8 +3876,12 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3757,8 +3897,12 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3774,8 +3918,12 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3791,8 +3939,12 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3808,8 +3960,12 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3825,8 +3981,12 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3845,8 +4005,12 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3865,8 +4029,12 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3882,8 +4050,12 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3902,8 +4074,12 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3922,8 +4098,12 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3942,8 +4122,12 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3962,8 +4146,12 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3982,8 +4170,12 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4002,8 +4194,12 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4022,8 +4218,12 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4039,8 +4239,12 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4059,8 +4263,12 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4076,8 +4284,12 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4096,8 +4308,12 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4116,8 +4332,12 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4136,8 +4356,12 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4153,8 +4377,12 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4170,8 +4398,12 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4187,8 +4419,12 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4207,8 +4443,12 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4227,8 +4467,12 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4244,8 +4488,12 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4261,8 +4509,12 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4281,8 +4533,12 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4301,8 +4557,12 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4321,8 +4581,12 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4338,8 +4602,12 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4358,8 +4626,12 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4375,8 +4647,12 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4392,8 +4668,12 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4409,8 +4689,12 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4429,8 +4713,12 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4449,8 +4737,12 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4469,8 +4761,12 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" t="str">
+        <f t="shared" ref="H68:H131" si="1">IF(D68=3,A68,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4489,8 +4785,12 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4509,8 +4809,12 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4529,8 +4833,12 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4549,8 +4857,12 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4569,8 +4881,12 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4589,8 +4905,12 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4606,8 +4926,12 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4626,8 +4950,12 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4643,8 +4971,12 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4663,8 +4995,12 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4680,8 +5016,12 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4700,8 +5040,12 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4720,8 +5064,12 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4737,8 +5085,12 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4757,8 +5109,12 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4774,8 +5130,12 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4794,8 +5154,12 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4811,8 +5175,12 @@
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4828,8 +5196,12 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4845,8 +5217,12 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4865,8 +5241,12 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4882,8 +5262,12 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4902,8 +5286,12 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4922,8 +5310,12 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4939,8 +5331,12 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4956,8 +5352,12 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4976,8 +5376,12 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4996,8 +5400,12 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5016,8 +5424,12 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5033,8 +5445,12 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5050,8 +5466,12 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5070,8 +5490,12 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5090,8 +5514,12 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5107,8 +5535,12 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5127,8 +5559,12 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5144,8 +5580,12 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5164,8 +5604,12 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5184,8 +5628,12 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5204,8 +5652,12 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5221,8 +5673,12 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5238,8 +5694,12 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5255,8 +5715,12 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5272,8 +5736,12 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5292,8 +5760,12 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5312,8 +5784,12 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5332,8 +5808,12 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5349,8 +5829,12 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5369,8 +5853,12 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5389,8 +5877,12 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5409,8 +5901,12 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5426,8 +5922,12 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5443,8 +5943,12 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5463,8 +5967,12 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5483,8 +5991,12 @@
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5500,8 +6012,12 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5520,8 +6036,12 @@
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5537,8 +6057,12 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5554,8 +6078,12 @@
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5574,8 +6102,12 @@
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5594,8 +6126,12 @@
       <c r="F128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5614,8 +6150,12 @@
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5634,8 +6174,12 @@
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5651,8 +6195,12 @@
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H131" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5671,8 +6219,12 @@
       <c r="F132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <f t="shared" ref="H132:H182" si="2">IF(D132=3,A132,"")</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5691,8 +6243,12 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5711,8 +6267,12 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5728,8 +6288,12 @@
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H135" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5748,8 +6312,12 @@
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5765,8 +6333,12 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5785,8 +6357,12 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5802,8 +6378,12 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H139" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5822,8 +6402,12 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5839,8 +6423,12 @@
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5856,8 +6444,12 @@
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5873,8 +6465,12 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H143" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5890,8 +6486,12 @@
       <c r="F144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H144" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5910,8 +6510,12 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5930,8 +6534,12 @@
       <c r="F146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5947,8 +6555,12 @@
       <c r="F147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H147" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5964,8 +6576,12 @@
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H148" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5984,8 +6600,12 @@
       <c r="F149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6001,8 +6621,12 @@
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H150" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6018,8 +6642,12 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H151" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6035,8 +6663,12 @@
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H152" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6052,8 +6684,12 @@
       <c r="F153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H153" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6072,8 +6708,12 @@
       <c r="F154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6089,8 +6729,12 @@
       <c r="F155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H155" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6109,8 +6753,12 @@
       <c r="F156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6126,8 +6774,12 @@
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H157" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6143,8 +6795,12 @@
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H158" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6160,8 +6816,12 @@
       <c r="F159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H159" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6180,8 +6840,12 @@
       <c r="F160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6200,8 +6864,12 @@
       <c r="F161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6217,8 +6885,12 @@
       <c r="F162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H162" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6234,8 +6906,12 @@
       <c r="F163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H163" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6251,8 +6927,12 @@
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H164" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6268,8 +6948,12 @@
       <c r="F165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H165" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6285,8 +6969,12 @@
       <c r="F166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H166" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6305,8 +6993,12 @@
       <c r="F167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6322,8 +7014,12 @@
       <c r="F168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H168" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6342,8 +7038,12 @@
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6359,8 +7059,12 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H170" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6379,8 +7083,12 @@
       <c r="F171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6399,8 +7107,12 @@
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6416,8 +7128,12 @@
       <c r="F173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H173" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6436,8 +7152,12 @@
       <c r="F174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6453,8 +7173,12 @@
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6470,8 +7194,12 @@
       <c r="F176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H176" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6490,8 +7218,12 @@
       <c r="F177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6510,8 +7242,12 @@
       <c r="F178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6530,8 +7266,12 @@
       <c r="F179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6547,8 +7287,12 @@
       <c r="F180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H180" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6564,8 +7308,12 @@
       <c r="F181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6583,6 +7331,10 @@
       </c>
       <c r="F182">
         <v>0</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="2"/>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6598,7 +7350,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7135,6 +7887,2509 @@
       </c>
       <c r="E31">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBD56D7-536A-4871-824A-5A5CE10921A4}">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>93</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>67</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>91</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>93</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>84</v>
+      </c>
+      <c r="C55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>88</v>
+      </c>
+      <c r="C56">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>90</v>
+      </c>
+      <c r="C57">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>91</v>
+      </c>
+      <c r="C58">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>94</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>95</v>
+      </c>
+      <c r="C60">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>96</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>102</v>
+      </c>
+      <c r="C64">
+        <v>69</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>104</v>
+      </c>
+      <c r="C65">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>105</v>
+      </c>
+      <c r="C66">
+        <v>76</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>106</v>
+      </c>
+      <c r="C67">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>111</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>112</v>
+      </c>
+      <c r="C69">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>113</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>115</v>
+      </c>
+      <c r="C71">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>116</v>
+      </c>
+      <c r="C72">
+        <v>56</v>
+      </c>
+      <c r="D72">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D9BA2-BEF7-4A87-B0A0-115C40B63B4D}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>129</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>133</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>137</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>139</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>144</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>145</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>148</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>153</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>155</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>159</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>160</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>166</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>168</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>171</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>173</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>176</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>177</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>178</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>181</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADB78EB-844F-45C4-9D87-8664565A8CD0}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC5C2C-A215-475F-A0EB-2DCF7583F416}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>78</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A968BE39-C8CF-4611-9C85-11FCEDB5B0AC}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(1,98)</f>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,71)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(1,98)</f>
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(1,71)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A70" ca="1" si="2">RANDBETWEEN(1,98)</f>
+        <v>93</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B70" ca="1" si="3">RANDBETWEEN(1,71)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
